--- a/CANNY/Datos/datos1.xlsx
+++ b/CANNY/Datos/datos1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNIVERSIDAD TECNOLOGICA DE PEREIRA\SEMESTRE XI\graficas HPC\canny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNIVERSIDAD TECNOLOGICA DE PEREIRA\SEMESTRE XI\HPC\CANNY\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,20 +195,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +401,10 @@
                   <c:v>33.369751898412638</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>32.472536083612646</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>31.923206358444713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.472536083612646</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31.84451079338379</c:v>
@@ -511,8 +511,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -876,10 +877,10 @@
                   <c:v>39.643865851029126</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>38.531547482161514</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>38.017084997371889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.531547482161514</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.901894616040558</c:v>
@@ -986,8 +987,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1351,10 +1353,10 @@
                   <c:v>1.1880179982073809</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.1865887956194021</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.1908918098797161</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1865887956194021</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.1902175185531594</c:v>
@@ -1461,8 +1463,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1829,10 +1832,10 @@
                   <c:v>33.369751898412638</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>32.472536083612646</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>31.923206358444713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.472536083612646</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31.84451079338379</c:v>
@@ -1952,10 +1955,10 @@
                   <c:v>39.643865851029126</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>38.531547482161514</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>38.017084997371889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.531547482161514</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.901894616040558</c:v>
@@ -2062,8 +2065,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2467,10 +2471,10 @@
                   <c:v>0.13857630000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.44735335000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.67437875000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44735335000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.052265</c:v>
@@ -2577,8 +2581,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2942,10 +2947,10 @@
                   <c:v>0.11664495000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.37700790000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.56628044999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37700790000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.88409470000000012</c:v>
@@ -3052,8 +3057,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3420,10 +3426,10 @@
                   <c:v>0.13857630000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.44735335000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.67437875000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44735335000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.052265</c:v>
@@ -3543,10 +3549,10 @@
                   <c:v>0.11664495000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.37700790000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.56628044999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37700790000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.88409470000000012</c:v>
@@ -3653,8 +3659,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4053,10 +4060,10 @@
                   <c:v>4.6242567500000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>14.526697799999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>21.528331999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.526697799999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33.508864149999994</c:v>
@@ -4163,8 +4170,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9509,8 +9517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9665,7 +9673,7 @@
         <v>640</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">A3*B3</f>
+        <f>A3*B3</f>
         <v>408320</v>
       </c>
       <c r="D3">
@@ -9765,7 +9773,7 @@
         <v>768</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>A4*B4</f>
         <v>1049088</v>
       </c>
       <c r="D4">
@@ -9865,7 +9873,7 @@
         <v>1600</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>A5*B5</f>
         <v>4096000</v>
       </c>
       <c r="D5">
@@ -9965,7 +9973,7 @@
         <v>3264</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>A6*B6</f>
         <v>16084992</v>
       </c>
       <c r="D6">
@@ -10065,7 +10073,7 @@
         <v>4222</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>A7*B7</f>
         <v>22064172</v>
       </c>
       <c r="D7">
@@ -10165,7 +10173,7 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>A8*B8</f>
         <v>72000000</v>
       </c>
       <c r="D8">
@@ -10176,6 +10184,106 @@
         <v>70312.5</v>
       </c>
       <c r="G8">
+        <f>AVERAGE(14.131295,
+14.684366,
+14.922256,
+14.403084,
+14.768742,
+14.654311,
+14.695954,
+14.610752,
+14.241837,
+14.456869,
+14.015684,
+14.520729,
+14.965599,
+14.714733,
+14.321953,
+14.710188,
+14.89418,
+14.263342,
+14.223138,
+14.334944)</f>
+        <v>14.526697799999999</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(0.449514,
+0.447493,
+0.449762,
+0.446176,
+0.448352,
+0.446027,
+0.448369,
+0.448081,
+0.448016,
+0.446616,
+0.447762,
+0.444748,
+0.446348,
+0.447498,
+0.448123,
+0.447042,
+0.446675,
+0.445307,
+0.447791,
+0.447367)</f>
+        <v>0.44735335000000004</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(0.377593,
+0.377269,
+0.37763,
+0.376997,
+0.377173,
+0.37671,
+0.37743,
+0.376163,
+0.375693,
+0.376682,
+0.376429,
+0.376014,
+0.377105,
+0.377355,
+0.377146,
+0.378057,
+0.374635,
+0.378618,
+0.377733,
+0.377726)</f>
+        <v>0.37700790000000001</v>
+      </c>
+      <c r="K8">
+        <f>G8/H8</f>
+        <v>32.472536083612646</v>
+      </c>
+      <c r="L8">
+        <f>G8/I8</f>
+        <v>38.531547482161514</v>
+      </c>
+      <c r="M8">
+        <f>H8/I8</f>
+        <v>1.1865887956194021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12000</v>
+      </c>
+      <c r="B9">
+        <v>9000</v>
+      </c>
+      <c r="C9">
+        <f>A9*B9</f>
+        <v>108000000</v>
+      </c>
+      <c r="D9">
+        <v>1024</v>
+      </c>
+      <c r="E9">
+        <f>(A9*B9)/D9</f>
+        <v>105468.75</v>
+      </c>
+      <c r="G9">
         <f>AVERAGE(21.713503,
 21.17125,
 21.670472,
@@ -10198,7 +10306,7 @@
 21.757099)</f>
         <v>21.528331999999999</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <f>AVERAGE(0.677048,
 0.677972,
 0.674243,
@@ -10221,7 +10329,7 @@
 0.6727)</f>
         <v>0.67437875000000003</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <f>AVERAGE(0.566312,
 0.565698,
 0.569108,
@@ -10244,117 +10352,17 @@
 0.569113)</f>
         <v>0.56628044999999994</v>
       </c>
-      <c r="K8">
-        <f>G8/H8</f>
-        <v>31.923206358444713</v>
-      </c>
-      <c r="L8">
-        <f>G8/I8</f>
-        <v>38.017084997371889</v>
-      </c>
-      <c r="M8">
-        <f>H8/I8</f>
-        <v>1.1908918098797161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>12000</v>
-      </c>
-      <c r="B9">
-        <v>9000</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>108000000</v>
-      </c>
-      <c r="D9">
-        <v>1024</v>
-      </c>
-      <c r="E9">
-        <f>(A9*B9)/D9</f>
-        <v>105468.75</v>
-      </c>
-      <c r="G9">
-        <f>AVERAGE(14.131295,
-14.684366,
-14.922256,
-14.403084,
-14.768742,
-14.654311,
-14.695954,
-14.610752,
-14.241837,
-14.456869,
-14.015684,
-14.520729,
-14.965599,
-14.714733,
-14.321953,
-14.710188,
-14.89418,
-14.263342,
-14.223138,
-14.334944)</f>
-        <v>14.526697799999999</v>
-      </c>
-      <c r="H9">
-        <f>AVERAGE(0.449514,
-0.447493,
-0.449762,
-0.446176,
-0.448352,
-0.446027,
-0.448369,
-0.448081,
-0.448016,
-0.446616,
-0.447762,
-0.444748,
-0.446348,
-0.447498,
-0.448123,
-0.447042,
-0.446675,
-0.445307,
-0.447791,
-0.447367)</f>
-        <v>0.44735335000000004</v>
-      </c>
-      <c r="I9">
-        <f>AVERAGE(0.377593,
-0.377269,
-0.37763,
-0.376997,
-0.377173,
-0.37671,
-0.37743,
-0.376163,
-0.375693,
-0.376682,
-0.376429,
-0.376014,
-0.377105,
-0.377355,
-0.377146,
-0.378057,
-0.374635,
-0.378618,
-0.377733,
-0.377726)</f>
-        <v>0.37700790000000001</v>
-      </c>
       <c r="K9">
         <f>G9/H9</f>
-        <v>32.472536083612646</v>
+        <v>31.923206358444713</v>
       </c>
       <c r="L9">
         <f>G9/I9</f>
-        <v>38.531547482161514</v>
+        <v>38.017084997371889</v>
       </c>
       <c r="M9">
         <f>H9/I9</f>
-        <v>1.1865887956194021</v>
+        <v>1.1908918098797161</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -10365,7 +10373,7 @@
         <v>8504</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>A10*B10</f>
         <v>168744872</v>
       </c>
       <c r="D10">
@@ -10458,128 +10466,128 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="5">
-        <f t="shared" ref="C84:D84" si="1">AVERAGE(0.067868,
+        <f t="shared" ref="C84" si="0">AVERAGE(0.067868,
 0.068324,
 0.06808,
 0.068328,
@@ -10603,7 +10611,7 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5">
-        <f t="shared" ref="E84:F84" si="2">AVERAGE(0.002868,
+        <f t="shared" ref="E84" si="1">AVERAGE(0.002868,
 0.002805,
 0.002803,
 0.002802,
@@ -10627,7 +10635,7 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
-        <f t="shared" ref="G84:H84" si="3">AVERAGE(0.002379,
+        <f t="shared" ref="G84" si="2">AVERAGE(0.002379,
 0.002381,
 0.002371,
 0.002383,
@@ -10652,12 +10660,12 @@
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="5">
-        <f t="shared" ref="C85:D85" si="4">AVERAGE(0.083377,
+        <f t="shared" ref="C85" si="3">AVERAGE(0.083377,
 0.083895,
 0.083784,
 0.083757,
@@ -10681,7 +10689,7 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5">
-        <f t="shared" ref="E85:F85" si="5">AVERAGE(0.00334,
+        <f t="shared" ref="E85" si="4">AVERAGE(0.00334,
 0.003337,
 0.003401,
 0.003326,
@@ -10705,7 +10713,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
-        <f t="shared" ref="G85:H85" si="6">AVERAGE(0.002855,
+        <f t="shared" ref="G85" si="5">AVERAGE(0.002855,
 0.00287,
 0.002857,
 0.002855,
@@ -10730,12 +10738,12 @@
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="5">
-        <f t="shared" ref="C86:D86" si="7">AVERAGE(0.210631,
+        <f t="shared" ref="C86" si="6">AVERAGE(0.210631,
 0.210976,
 0.210677,
 0.210946,
@@ -10759,7 +10767,7 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5">
-        <f t="shared" ref="E86:F86" si="8">AVERAGE(0.008189,
+        <f t="shared" ref="E86" si="7">AVERAGE(0.008189,
 0.008162,
 0.008188,
 0.008149,
@@ -10783,7 +10791,7 @@
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
-        <f t="shared" ref="G86:H86" si="9">AVERAGE(0.006891,
+        <f t="shared" ref="G86" si="8">AVERAGE(0.006891,
 0.006841,
 0.006847,
 0.006893,
@@ -10808,12 +10816,12 @@
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="5">
-        <f t="shared" ref="C87:D87" si="10">AVERAGE(0.823591,
+        <f t="shared" ref="C87" si="9">AVERAGE(0.823591,
 0.831657,
 0.820498,
 0.822625,
@@ -10837,7 +10845,7 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5">
-        <f t="shared" ref="E87:F87" si="11">AVERAGE(0.027542,
+        <f t="shared" ref="E87" si="10">AVERAGE(0.027542,
 0.02742,
 0.027461,
 0.027587,
@@ -10861,7 +10869,7 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
-        <f t="shared" ref="G87:H87" si="12">AVERAGE(0.022568,
+        <f t="shared" ref="G87" si="11">AVERAGE(0.022568,
 0.022507,
 0.022574,
 0.022639,
@@ -10884,15 +10892,15 @@
         <v>2.2643449999999999E-2</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="2"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="5">
-        <f t="shared" ref="C88:D88" si="13">AVERAGE(3.714678,
+        <f t="shared" ref="C88" si="12">AVERAGE(3.714678,
 3.576742,
 3.466733,
 3.469402,
@@ -10916,7 +10924,7 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5">
-        <f t="shared" ref="E88:F88" si="14">AVERAGE(0.100161,
+        <f t="shared" ref="E88" si="13">AVERAGE(0.100161,
 0.101002,
 0.101489,
 0.100712,
@@ -10940,7 +10948,7 @@
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5">
-        <f t="shared" ref="G88:H88" si="15">AVERAGE(0.084154,
+        <f t="shared" ref="G88" si="14">AVERAGE(0.084154,
 0.084731,
 0.084546,
 0.08404,
@@ -10965,12 +10973,12 @@
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="5">
-        <f t="shared" ref="C89:D89" si="16">AVERAGE(4.6899,
+        <f t="shared" ref="C89" si="15">AVERAGE(4.6899,
 4.748381,
 4.719746,
 4.754097,
@@ -10994,7 +11002,7 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5">
-        <f t="shared" ref="E89:F89" si="17">AVERAGE(0.138952,
+        <f t="shared" ref="E89" si="16">AVERAGE(0.138952,
 0.138719,
 0.138529,
 0.138259,
@@ -11018,7 +11026,7 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5">
-        <f t="shared" ref="G89:H89" si="18">AVERAGE(0.11845,
+        <f t="shared" ref="G89" si="17">AVERAGE(0.11845,
 0.117769,
 0.11765,
 0.116024,
@@ -11043,12 +11051,90 @@
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="5">
-        <f t="shared" ref="C90:D90" si="19">AVERAGE(21.713503,
+        <f t="shared" ref="C90" si="18">AVERAGE(14.131295,
+14.684366,
+14.922256,
+14.403084,
+14.768742,
+14.654311,
+14.695954,
+14.610752,
+14.241837,
+14.456869,
+14.015684,
+14.520729,
+14.965599,
+14.714733,
+14.321953,
+14.710188,
+14.89418,
+14.263342,
+14.223138,
+14.334944)</f>
+        <v>14.526697799999999</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
+        <f t="shared" ref="E90" si="19">AVERAGE(0.449514,
+0.447493,
+0.449762,
+0.446176,
+0.448352,
+0.446027,
+0.448369,
+0.448081,
+0.448016,
+0.446616,
+0.447762,
+0.444748,
+0.446348,
+0.447498,
+0.448123,
+0.447042,
+0.446675,
+0.445307,
+0.447791,
+0.447367)</f>
+        <v>0.44735335000000004</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
+        <f t="shared" ref="G90" si="20">AVERAGE(0.377593,
+0.377269,
+0.37763,
+0.376997,
+0.377173,
+0.37671,
+0.37743,
+0.376163,
+0.375693,
+0.376682,
+0.376429,
+0.376014,
+0.377105,
+0.377355,
+0.377146,
+0.378057,
+0.374635,
+0.378618,
+0.377733,
+0.377726)</f>
+        <v>0.37700790000000001</v>
+      </c>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="5">
+        <f t="shared" ref="C91" si="21">AVERAGE(21.713503,
 21.17125,
 21.670472,
 21.029984,
@@ -11070,9 +11156,9 @@
 21.757099)</f>
         <v>21.528331999999999</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5">
-        <f t="shared" ref="E90:F90" si="20">AVERAGE(0.677048,
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
+        <f t="shared" ref="E91" si="22">AVERAGE(0.677048,
 0.677972,
 0.674243,
 0.672687,
@@ -11094,9 +11180,9 @@
 0.6727)</f>
         <v>0.67437875000000003</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5">
-        <f t="shared" ref="G90:H90" si="21">AVERAGE(0.566312,
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
+        <f t="shared" ref="G91" si="23">AVERAGE(0.566312,
 0.565698,
 0.569108,
 0.567555,
@@ -11118,93 +11204,15 @@
 0.569113)</f>
         <v>0.56628044999999994</v>
       </c>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5">
-        <f t="shared" ref="C91:D91" si="22">AVERAGE(14.131295,
-14.684366,
-14.922256,
-14.403084,
-14.768742,
-14.654311,
-14.695954,
-14.610752,
-14.241837,
-14.456869,
-14.015684,
-14.520729,
-14.965599,
-14.714733,
-14.321953,
-14.710188,
-14.89418,
-14.263342,
-14.223138,
-14.334944)</f>
-        <v>14.526697799999999</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5">
-        <f t="shared" ref="E91:F91" si="23">AVERAGE(0.449514,
-0.447493,
-0.449762,
-0.446176,
-0.448352,
-0.446027,
-0.448369,
-0.448081,
-0.448016,
-0.446616,
-0.447762,
-0.444748,
-0.446348,
-0.447498,
-0.448123,
-0.447042,
-0.446675,
-0.445307,
-0.447791,
-0.447367)</f>
-        <v>0.44735335000000004</v>
-      </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <f t="shared" ref="G91:H91" si="24">AVERAGE(0.377593,
-0.377269,
-0.37763,
-0.376997,
-0.377173,
-0.37671,
-0.37743,
-0.376163,
-0.375693,
-0.376682,
-0.376429,
-0.376014,
-0.377105,
-0.377355,
-0.377146,
-0.378057,
-0.374635,
-0.378618,
-0.377733,
-0.377726)</f>
-        <v>0.37700790000000001</v>
-      </c>
       <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="5">
-        <f t="shared" ref="C92:D92" si="25">AVERAGE(33.567137,
+        <f t="shared" ref="C92" si="24">AVERAGE(33.567137,
 33.621112,
 33.614074,
 33.088212,
@@ -11228,7 +11236,7 @@
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5">
-        <f t="shared" ref="E92:F92" si="26">AVERAGE(1.066513,
+        <f t="shared" ref="E92" si="25">AVERAGE(1.066513,
 1.072779,
 1.055755,
 1.051258,
@@ -11252,7 +11260,7 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5">
-        <f t="shared" ref="G92:H92" si="27">AVERAGE(0.886522,
+        <f t="shared" ref="G92" si="26">AVERAGE(0.886522,
 0.881791,
 0.886,
 0.885244,
@@ -11277,252 +11285,199 @@
       <c r="H92" s="5"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3" t="s">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3">
         <v>24.433100410000002</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3">
         <v>28.84913504</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4">
+      <c r="F95" s="3"/>
+      <c r="G95" s="3">
         <v>1.1807398389999999</v>
       </c>
-      <c r="H95" s="4"/>
+      <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3">
         <v>24.992673549999999</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
         <v>29.278945520000001</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3">
         <v>1.1715011390000001</v>
       </c>
-      <c r="H96" s="4"/>
+      <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3">
         <v>25.84659898</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
         <v>30.770514389999999</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3">
         <v>1.1905053510000001</v>
       </c>
-      <c r="H97" s="4"/>
-      <c r="I97" s="6"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3">
         <v>29.915958069999999</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3">
         <v>36.380995390000002</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3">
         <v>1.216106645</v>
       </c>
-      <c r="H98" s="4"/>
+      <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3">
         <v>34.040803910000001</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
         <v>40.598920040000003</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4">
+      <c r="F99" s="3"/>
+      <c r="G99" s="3">
         <v>1.1926545609999999</v>
       </c>
-      <c r="H99" s="4"/>
+      <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3">
         <v>33.369751899999997</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3">
         <v>39.643865849999997</v>
       </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4">
+      <c r="F100" s="3"/>
+      <c r="G100" s="3">
         <v>1.1880179980000001</v>
       </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4">
-        <v>31.923206359999998</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4">
-        <v>38.017085000000002</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4">
-        <v>1.1908918100000001</v>
-      </c>
-      <c r="H101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3">
+        <v>32.472536079999998</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>38.53154748</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3">
+        <v>1.1865887959999999</v>
+      </c>
+      <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4">
-        <v>32.472536079999998</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4">
-        <v>38.53154748</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4">
-        <v>1.1865887959999999</v>
-      </c>
-      <c r="H102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3">
+        <v>31.923206359999998</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3">
+        <v>38.017085000000002</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3">
+        <v>1.1908918100000001</v>
+      </c>
+      <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3">
         <v>31.844510790000001</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3">
         <v>37.90189462</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
         <v>1.1902175189999999</v>
       </c>
-      <c r="H103" s="4"/>
+      <c r="H103" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:M10">
     <sortCondition ref="C2:C10"/>
   </sortState>
   <mergeCells count="83">
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A12:N13"/>
+    <mergeCell ref="A46:M47"/>
+    <mergeCell ref="A80:M81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="E83:F83"/>
@@ -11538,13 +11493,66 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A12:N13"/>
-    <mergeCell ref="A46:M47"/>
-    <mergeCell ref="A80:M81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E103:F103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/CANNY/Datos/datos1.xlsx
+++ b/CANNY/Datos/datos1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>ancho</t>
   </si>
@@ -115,6 +115,9 @@
   <si>
     <t>Global vs Constante</t>
   </si>
+  <si>
+    <t>Cambios</t>
+  </si>
 </sst>
 </file>
 
@@ -200,14 +203,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9515,10 +9518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9573,14 +9576,14 @@
         <v>580</v>
       </c>
       <c r="C2">
-        <f>A2*B2</f>
+        <f t="shared" ref="C2:C10" si="0">A2*B2</f>
         <v>336400</v>
       </c>
       <c r="D2">
         <v>1024</v>
       </c>
       <c r="E2">
-        <f>(A2*B2)/D2</f>
+        <f t="shared" ref="E2:E10" si="1">(A2*B2)/D2</f>
         <v>328.515625</v>
       </c>
       <c r="G2">
@@ -9653,15 +9656,15 @@
         <v>2.3816000000000002E-3</v>
       </c>
       <c r="K2">
-        <f>G2/H2</f>
+        <f t="shared" ref="K2:K10" si="2">G2/H2</f>
         <v>24.433100407176262</v>
       </c>
       <c r="L2">
-        <f>G2/I2</f>
+        <f t="shared" ref="L2:L10" si="3">G2/I2</f>
         <v>28.849135035270407</v>
       </c>
       <c r="M2">
-        <f>H2/I2</f>
+        <f t="shared" ref="M2:M10" si="4">H2/I2</f>
         <v>1.1807398387638561</v>
       </c>
     </row>
@@ -9673,14 +9676,14 @@
         <v>640</v>
       </c>
       <c r="C3">
-        <f>A3*B3</f>
+        <f t="shared" si="0"/>
         <v>408320</v>
       </c>
       <c r="D3">
         <v>1024</v>
       </c>
       <c r="E3">
-        <f>(A3*B3)/D3</f>
+        <f t="shared" si="1"/>
         <v>398.75</v>
       </c>
       <c r="G3">
@@ -9753,15 +9756,15 @@
         <v>2.8545000000000003E-3</v>
       </c>
       <c r="K3">
-        <f>G3/H3</f>
+        <f t="shared" si="2"/>
         <v>24.992673554522209</v>
       </c>
       <c r="L3">
-        <f>G3/I3</f>
+        <f t="shared" si="3"/>
         <v>29.278945524610265</v>
       </c>
       <c r="M3">
-        <f>H3/I3</f>
+        <f t="shared" si="4"/>
         <v>1.1715011385531617</v>
       </c>
     </row>
@@ -9773,14 +9776,14 @@
         <v>768</v>
       </c>
       <c r="C4">
-        <f>A4*B4</f>
+        <f t="shared" si="0"/>
         <v>1049088</v>
       </c>
       <c r="D4">
         <v>1024</v>
       </c>
       <c r="E4">
-        <f>(A4*B4)/D4</f>
+        <f t="shared" si="1"/>
         <v>1024.5</v>
       </c>
       <c r="G4">
@@ -9853,15 +9856,15 @@
         <v>6.8585999999999994E-3</v>
       </c>
       <c r="K4">
-        <f>G4/H4</f>
+        <f t="shared" si="2"/>
         <v>25.846598981041488</v>
       </c>
       <c r="L4">
-        <f>G4/I4</f>
+        <f t="shared" si="3"/>
         <v>30.770514390691972</v>
       </c>
       <c r="M4">
-        <f>H4/I4</f>
+        <f t="shared" si="4"/>
         <v>1.1905053509462573</v>
       </c>
     </row>
@@ -9873,14 +9876,14 @@
         <v>1600</v>
       </c>
       <c r="C5">
-        <f>A5*B5</f>
+        <f t="shared" si="0"/>
         <v>4096000</v>
       </c>
       <c r="D5">
         <v>1024</v>
       </c>
       <c r="E5">
-        <f>(A5*B5)/D5</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G5">
@@ -9953,15 +9956,15 @@
         <v>2.2643449999999999E-2</v>
       </c>
       <c r="K5">
-        <f>G5/H5</f>
+        <f t="shared" si="2"/>
         <v>29.915958070730682</v>
       </c>
       <c r="L5">
-        <f>G5/I5</f>
+        <f t="shared" si="3"/>
         <v>36.380995387187021</v>
       </c>
       <c r="M5">
-        <f>H5/I5</f>
+        <f t="shared" si="4"/>
         <v>1.2161066445263418</v>
       </c>
     </row>
@@ -9973,14 +9976,14 @@
         <v>3264</v>
       </c>
       <c r="C6">
-        <f>A6*B6</f>
+        <f t="shared" si="0"/>
         <v>16084992</v>
       </c>
       <c r="D6">
         <v>1024</v>
       </c>
       <c r="E6">
-        <f>(A6*B6)/D6</f>
+        <f t="shared" si="1"/>
         <v>15708</v>
       </c>
       <c r="G6">
@@ -10053,15 +10056,15 @@
         <v>8.4475549999999996E-2</v>
       </c>
       <c r="K6">
-        <f>G6/H6</f>
+        <f t="shared" si="2"/>
         <v>34.040803909473077</v>
       </c>
       <c r="L6">
-        <f>G6/I6</f>
+        <f t="shared" si="3"/>
         <v>40.598920042544854</v>
       </c>
       <c r="M6">
-        <f>H6/I6</f>
+        <f t="shared" si="4"/>
         <v>1.192654560994276</v>
       </c>
     </row>
@@ -10073,14 +10076,14 @@
         <v>4222</v>
       </c>
       <c r="C7">
-        <f>A7*B7</f>
+        <f t="shared" si="0"/>
         <v>22064172</v>
       </c>
       <c r="D7">
         <v>1024</v>
       </c>
       <c r="E7">
-        <f>(A7*B7)/D7</f>
+        <f t="shared" si="1"/>
         <v>21547.04296875</v>
       </c>
       <c r="G7">
@@ -10153,15 +10156,15 @@
         <v>0.11664495000000001</v>
       </c>
       <c r="K7">
-        <f>G7/H7</f>
+        <f t="shared" si="2"/>
         <v>33.369751898412638</v>
       </c>
       <c r="L7">
-        <f>G7/I7</f>
+        <f t="shared" si="3"/>
         <v>39.643865851029126</v>
       </c>
       <c r="M7">
-        <f>H7/I7</f>
+        <f t="shared" si="4"/>
         <v>1.1880179982073809</v>
       </c>
     </row>
@@ -10173,14 +10176,14 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <f>A8*B8</f>
+        <f t="shared" si="0"/>
         <v>72000000</v>
       </c>
       <c r="D8">
         <v>1024</v>
       </c>
       <c r="E8">
-        <f>(A8*B8)/D8</f>
+        <f t="shared" si="1"/>
         <v>70312.5</v>
       </c>
       <c r="G8">
@@ -10253,15 +10256,15 @@
         <v>0.37700790000000001</v>
       </c>
       <c r="K8">
-        <f>G8/H8</f>
+        <f t="shared" si="2"/>
         <v>32.472536083612646</v>
       </c>
       <c r="L8">
-        <f>G8/I8</f>
+        <f t="shared" si="3"/>
         <v>38.531547482161514</v>
       </c>
       <c r="M8">
-        <f>H8/I8</f>
+        <f t="shared" si="4"/>
         <v>1.1865887956194021</v>
       </c>
     </row>
@@ -10273,14 +10276,14 @@
         <v>9000</v>
       </c>
       <c r="C9">
-        <f>A9*B9</f>
+        <f t="shared" si="0"/>
         <v>108000000</v>
       </c>
       <c r="D9">
         <v>1024</v>
       </c>
       <c r="E9">
-        <f>(A9*B9)/D9</f>
+        <f t="shared" si="1"/>
         <v>105468.75</v>
       </c>
       <c r="G9">
@@ -10353,15 +10356,15 @@
         <v>0.56628044999999994</v>
       </c>
       <c r="K9">
-        <f>G9/H9</f>
+        <f t="shared" si="2"/>
         <v>31.923206358444713</v>
       </c>
       <c r="L9">
-        <f>G9/I9</f>
+        <f t="shared" si="3"/>
         <v>38.017084997371889</v>
       </c>
       <c r="M9">
-        <f>H9/I9</f>
+        <f t="shared" si="4"/>
         <v>1.1908918098797161</v>
       </c>
     </row>
@@ -10373,14 +10376,14 @@
         <v>8504</v>
       </c>
       <c r="C10">
-        <f>A10*B10</f>
+        <f t="shared" si="0"/>
         <v>168744872</v>
       </c>
       <c r="D10">
         <v>1024</v>
       </c>
       <c r="E10">
-        <f>(A10*B10)/D10</f>
+        <f t="shared" si="1"/>
         <v>164789.9140625</v>
       </c>
       <c r="G10">
@@ -10453,141 +10456,141 @@
         <v>0.88409470000000012</v>
       </c>
       <c r="K10">
-        <f>G10/H10</f>
+        <f t="shared" si="2"/>
         <v>31.84451079338379</v>
       </c>
       <c r="L10">
-        <f>G10/I10</f>
+        <f t="shared" si="3"/>
         <v>37.901894616040558</v>
       </c>
       <c r="M10">
-        <f>H10/I10</f>
+        <f t="shared" si="4"/>
         <v>1.1902175185531594</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="5">
-        <f t="shared" ref="C84" si="0">AVERAGE(0.067868,
+      <c r="C84" s="6">
+        <f t="shared" ref="C84" si="5">AVERAGE(0.067868,
 0.068324,
 0.06808,
 0.068328,
@@ -10609,9 +10612,9 @@
 0.082651)</f>
         <v>6.8707100000000007E-2</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5">
-        <f t="shared" ref="E84" si="1">AVERAGE(0.002868,
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
+        <f t="shared" ref="E84" si="6">AVERAGE(0.002868,
 0.002805,
 0.002803,
 0.002802,
@@ -10633,9 +10636,9 @@
 0.002817)</f>
         <v>2.81205E-3</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5">
-        <f t="shared" ref="G84" si="2">AVERAGE(0.002379,
+      <c r="F84" s="6"/>
+      <c r="G84" s="6">
+        <f t="shared" ref="G84" si="7">AVERAGE(0.002379,
 0.002381,
 0.002371,
 0.002383,
@@ -10657,15 +10660,15 @@
 0.002385)</f>
         <v>2.3816000000000002E-3</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="5">
-        <f t="shared" ref="C85" si="3">AVERAGE(0.083377,
+      <c r="C85" s="6">
+        <f t="shared" ref="C85" si="8">AVERAGE(0.083377,
 0.083895,
 0.083784,
 0.083757,
@@ -10687,9 +10690,9 @@
 0.083294)</f>
         <v>8.3576750000000005E-2</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5">
-        <f t="shared" ref="E85" si="4">AVERAGE(0.00334,
+      <c r="D85" s="6"/>
+      <c r="E85" s="6">
+        <f t="shared" ref="E85" si="9">AVERAGE(0.00334,
 0.003337,
 0.003401,
 0.003326,
@@ -10711,9 +10714,9 @@
 0.003342)</f>
         <v>3.3440500000000003E-3</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5">
-        <f t="shared" ref="G85" si="5">AVERAGE(0.002855,
+      <c r="F85" s="6"/>
+      <c r="G85" s="6">
+        <f t="shared" ref="G85" si="10">AVERAGE(0.002855,
 0.00287,
 0.002857,
 0.002855,
@@ -10735,15 +10738,15 @@
 0.002866)</f>
         <v>2.8545000000000003E-3</v>
       </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="5">
-        <f t="shared" ref="C86" si="6">AVERAGE(0.210631,
+      <c r="C86" s="6">
+        <f t="shared" ref="C86" si="11">AVERAGE(0.210631,
 0.210976,
 0.210677,
 0.210946,
@@ -10765,9 +10768,9 @@
 0.211388)</f>
         <v>0.21104264999999994</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5">
-        <f t="shared" ref="E86" si="7">AVERAGE(0.008189,
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
+        <f t="shared" ref="E86" si="12">AVERAGE(0.008189,
 0.008162,
 0.008188,
 0.008149,
@@ -10789,9 +10792,9 @@
 0.008159)</f>
         <v>8.1651999999999992E-3</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5">
-        <f t="shared" ref="G86" si="8">AVERAGE(0.006891,
+      <c r="F86" s="6"/>
+      <c r="G86" s="6">
+        <f t="shared" ref="G86" si="13">AVERAGE(0.006891,
 0.006841,
 0.006847,
 0.006893,
@@ -10813,15 +10816,15 @@
 0.006845)</f>
         <v>6.8585999999999994E-3</v>
       </c>
-      <c r="H86" s="5"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B87" s="3"/>
-      <c r="C87" s="5">
-        <f t="shared" ref="C87" si="9">AVERAGE(0.823591,
+      <c r="C87" s="6">
+        <f t="shared" ref="C87" si="14">AVERAGE(0.823591,
 0.831657,
 0.820498,
 0.822625,
@@ -10843,9 +10846,9 @@
 0.822704)</f>
         <v>0.82379124999999997</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5">
-        <f t="shared" ref="E87" si="10">AVERAGE(0.027542,
+      <c r="D87" s="6"/>
+      <c r="E87" s="6">
+        <f t="shared" ref="E87" si="15">AVERAGE(0.027542,
 0.02742,
 0.027461,
 0.027587,
@@ -10867,9 +10870,9 @@
 0.027643)</f>
         <v>2.7536849999999995E-2</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5">
-        <f t="shared" ref="G87" si="11">AVERAGE(0.022568,
+      <c r="F87" s="6"/>
+      <c r="G87" s="6">
+        <f t="shared" ref="G87" si="16">AVERAGE(0.022568,
 0.022507,
 0.022574,
 0.022639,
@@ -10891,7 +10894,7 @@
 0.022682)</f>
         <v>2.2643449999999999E-2</v>
       </c>
-      <c r="H87" s="5"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10899,8 +10902,8 @@
         <v>19</v>
       </c>
       <c r="B88" s="3"/>
-      <c r="C88" s="5">
-        <f t="shared" ref="C88" si="12">AVERAGE(3.714678,
+      <c r="C88" s="6">
+        <f t="shared" ref="C88" si="17">AVERAGE(3.714678,
 3.576742,
 3.466733,
 3.469402,
@@ -10922,9 +10925,9 @@
 3.326843)</f>
         <v>3.4296160999999996</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5">
-        <f t="shared" ref="E88" si="13">AVERAGE(0.100161,
+      <c r="D88" s="6"/>
+      <c r="E88" s="6">
+        <f t="shared" ref="E88" si="18">AVERAGE(0.100161,
 0.101002,
 0.101489,
 0.100712,
@@ -10946,9 +10949,9 @@
 0.10044)</f>
         <v>0.10075015000000001</v>
       </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5">
-        <f t="shared" ref="G88" si="14">AVERAGE(0.084154,
+      <c r="F88" s="6"/>
+      <c r="G88" s="6">
+        <f t="shared" ref="G88" si="19">AVERAGE(0.084154,
 0.084731,
 0.084546,
 0.08404,
@@ -10970,15 +10973,15 @@
 0.084229)</f>
         <v>8.4475549999999996E-2</v>
       </c>
-      <c r="H88" s="5"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="3"/>
-      <c r="C89" s="5">
-        <f t="shared" ref="C89" si="15">AVERAGE(4.6899,
+      <c r="C89" s="6">
+        <f t="shared" ref="C89" si="20">AVERAGE(4.6899,
 4.748381,
 4.719746,
 4.754097,
@@ -11000,9 +11003,9 @@
 4.577218)</f>
         <v>4.6242567500000007</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5">
-        <f t="shared" ref="E89" si="16">AVERAGE(0.138952,
+      <c r="D89" s="6"/>
+      <c r="E89" s="6">
+        <f t="shared" ref="E89" si="21">AVERAGE(0.138952,
 0.138719,
 0.138529,
 0.138259,
@@ -11024,9 +11027,9 @@
 0.137817)</f>
         <v>0.13857630000000004</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5">
-        <f t="shared" ref="G89" si="17">AVERAGE(0.11845,
+      <c r="F89" s="6"/>
+      <c r="G89" s="6">
+        <f t="shared" ref="G89" si="22">AVERAGE(0.11845,
 0.117769,
 0.11765,
 0.116024,
@@ -11048,15 +11051,15 @@
 0.115692)</f>
         <v>0.11664495000000001</v>
       </c>
-      <c r="H89" s="5"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="5">
-        <f t="shared" ref="C90" si="18">AVERAGE(14.131295,
+      <c r="C90" s="6">
+        <f t="shared" ref="C90" si="23">AVERAGE(14.131295,
 14.684366,
 14.922256,
 14.403084,
@@ -11078,9 +11081,9 @@
 14.334944)</f>
         <v>14.526697799999999</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5">
-        <f t="shared" ref="E90" si="19">AVERAGE(0.449514,
+      <c r="D90" s="6"/>
+      <c r="E90" s="6">
+        <f t="shared" ref="E90" si="24">AVERAGE(0.449514,
 0.447493,
 0.449762,
 0.446176,
@@ -11102,9 +11105,9 @@
 0.447367)</f>
         <v>0.44735335000000004</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5">
-        <f t="shared" ref="G90" si="20">AVERAGE(0.377593,
+      <c r="F90" s="6"/>
+      <c r="G90" s="6">
+        <f t="shared" ref="G90" si="25">AVERAGE(0.377593,
 0.377269,
 0.37763,
 0.376997,
@@ -11126,15 +11129,15 @@
 0.377726)</f>
         <v>0.37700790000000001</v>
       </c>
-      <c r="H90" s="5"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="3"/>
-      <c r="C91" s="5">
-        <f t="shared" ref="C91" si="21">AVERAGE(21.713503,
+      <c r="C91" s="6">
+        <f t="shared" ref="C91" si="26">AVERAGE(21.713503,
 21.17125,
 21.670472,
 21.029984,
@@ -11156,9 +11159,9 @@
 21.757099)</f>
         <v>21.528331999999999</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5">
-        <f t="shared" ref="E91" si="22">AVERAGE(0.677048,
+      <c r="D91" s="6"/>
+      <c r="E91" s="6">
+        <f t="shared" ref="E91" si="27">AVERAGE(0.677048,
 0.677972,
 0.674243,
 0.672687,
@@ -11180,9 +11183,9 @@
 0.6727)</f>
         <v>0.67437875000000003</v>
       </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <f t="shared" ref="G91" si="23">AVERAGE(0.566312,
+      <c r="F91" s="6"/>
+      <c r="G91" s="6">
+        <f t="shared" ref="G91" si="28">AVERAGE(0.566312,
 0.565698,
 0.569108,
 0.567555,
@@ -11204,15 +11207,15 @@
 0.569113)</f>
         <v>0.56628044999999994</v>
       </c>
-      <c r="H91" s="5"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B92" s="3"/>
-      <c r="C92" s="5">
-        <f t="shared" ref="C92" si="24">AVERAGE(33.567137,
+      <c r="C92" s="6">
+        <f t="shared" ref="C92" si="29">AVERAGE(33.567137,
 33.621112,
 33.614074,
 33.088212,
@@ -11234,9 +11237,9 @@
 33.274311)</f>
         <v>33.508864149999994</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5">
-        <f t="shared" ref="E92" si="25">AVERAGE(1.066513,
+      <c r="D92" s="6"/>
+      <c r="E92" s="6">
+        <f t="shared" ref="E92" si="30">AVERAGE(1.066513,
 1.072779,
 1.055755,
 1.051258,
@@ -11258,9 +11261,9 @@
 1.047965)</f>
         <v>1.052265</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5">
-        <f t="shared" ref="G92" si="26">AVERAGE(0.886522,
+      <c r="F92" s="6"/>
+      <c r="G92" s="6">
+        <f t="shared" ref="G92" si="31">AVERAGE(0.886522,
 0.881791,
 0.886,
 0.885244,
@@ -11282,25 +11285,25 @@
 0.882942)</f>
         <v>0.88409470000000012</v>
       </c>
-      <c r="H92" s="5"/>
+      <c r="H92" s="6"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4" t="s">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -11465,19 +11468,71 @@
       </c>
       <c r="H103" s="3"/>
     </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:M10">
     <sortCondition ref="C2:C10"/>
   </sortState>
   <mergeCells count="83">
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A12:N13"/>
-    <mergeCell ref="A46:M47"/>
-    <mergeCell ref="A80:M81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E84:F84"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="E83:F83"/>
@@ -11494,65 +11549,18 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A12:N13"/>
+    <mergeCell ref="A46:M47"/>
+    <mergeCell ref="A80:M81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="E91:F91"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E89:F89"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E103:F103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/CANNY/Datos/datos1.xlsx
+++ b/CANNY/Datos/datos1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>ancho</t>
   </si>
@@ -115,9 +115,6 @@
   <si>
     <t>Global vs Constante</t>
   </si>
-  <si>
-    <t>Cambios</t>
-  </si>
 </sst>
 </file>
 
@@ -203,14 +200,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9518,10 +9515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10469,127 +10466,127 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5" t="s">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <f t="shared" ref="C84" si="5">AVERAGE(0.067868,
 0.068324,
 0.06808,
@@ -10612,8 +10609,8 @@
 0.082651)</f>
         <v>6.8707100000000007E-2</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5">
         <f t="shared" ref="E84" si="6">AVERAGE(0.002868,
 0.002805,
 0.002803,
@@ -10636,8 +10633,8 @@
 0.002817)</f>
         <v>2.81205E-3</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5">
         <f t="shared" ref="G84" si="7">AVERAGE(0.002379,
 0.002381,
 0.002371,
@@ -10660,14 +10657,14 @@
 0.002385)</f>
         <v>2.3816000000000002E-3</v>
       </c>
-      <c r="H84" s="6"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <f t="shared" ref="C85" si="8">AVERAGE(0.083377,
 0.083895,
 0.083784,
@@ -10690,8 +10687,8 @@
 0.083294)</f>
         <v>8.3576750000000005E-2</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5">
         <f t="shared" ref="E85" si="9">AVERAGE(0.00334,
 0.003337,
 0.003401,
@@ -10714,8 +10711,8 @@
 0.003342)</f>
         <v>3.3440500000000003E-3</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
         <f t="shared" ref="G85" si="10">AVERAGE(0.002855,
 0.00287,
 0.002857,
@@ -10738,14 +10735,14 @@
 0.002866)</f>
         <v>2.8545000000000003E-3</v>
       </c>
-      <c r="H85" s="6"/>
+      <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <f t="shared" ref="C86" si="11">AVERAGE(0.210631,
 0.210976,
 0.210677,
@@ -10768,8 +10765,8 @@
 0.211388)</f>
         <v>0.21104264999999994</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5">
         <f t="shared" ref="E86" si="12">AVERAGE(0.008189,
 0.008162,
 0.008188,
@@ -10792,8 +10789,8 @@
 0.008159)</f>
         <v>8.1651999999999992E-3</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
         <f t="shared" ref="G86" si="13">AVERAGE(0.006891,
 0.006841,
 0.006847,
@@ -10816,14 +10813,14 @@
 0.006845)</f>
         <v>6.8585999999999994E-3</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B87" s="3"/>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <f t="shared" ref="C87" si="14">AVERAGE(0.823591,
 0.831657,
 0.820498,
@@ -10846,8 +10843,8 @@
 0.822704)</f>
         <v>0.82379124999999997</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5">
         <f t="shared" ref="E87" si="15">AVERAGE(0.027542,
 0.02742,
 0.027461,
@@ -10870,8 +10867,8 @@
 0.027643)</f>
         <v>2.7536849999999995E-2</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <f t="shared" ref="G87" si="16">AVERAGE(0.022568,
 0.022507,
 0.022574,
@@ -10894,7 +10891,7 @@
 0.022682)</f>
         <v>2.2643449999999999E-2</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10902,7 +10899,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="3"/>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <f t="shared" ref="C88" si="17">AVERAGE(3.714678,
 3.576742,
 3.466733,
@@ -10925,8 +10922,8 @@
 3.326843)</f>
         <v>3.4296160999999996</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5">
         <f t="shared" ref="E88" si="18">AVERAGE(0.100161,
 0.101002,
 0.101489,
@@ -10949,8 +10946,8 @@
 0.10044)</f>
         <v>0.10075015000000001</v>
       </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
         <f t="shared" ref="G88" si="19">AVERAGE(0.084154,
 0.084731,
 0.084546,
@@ -10973,14 +10970,14 @@
 0.084229)</f>
         <v>8.4475549999999996E-2</v>
       </c>
-      <c r="H88" s="6"/>
+      <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="3"/>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <f t="shared" ref="C89" si="20">AVERAGE(4.6899,
 4.748381,
 4.719746,
@@ -11003,8 +11000,8 @@
 4.577218)</f>
         <v>4.6242567500000007</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5">
         <f t="shared" ref="E89" si="21">AVERAGE(0.138952,
 0.138719,
 0.138529,
@@ -11027,8 +11024,8 @@
 0.137817)</f>
         <v>0.13857630000000004</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
         <f t="shared" ref="G89" si="22">AVERAGE(0.11845,
 0.117769,
 0.11765,
@@ -11051,14 +11048,14 @@
 0.115692)</f>
         <v>0.11664495000000001</v>
       </c>
-      <c r="H89" s="6"/>
+      <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <f t="shared" ref="C90" si="23">AVERAGE(14.131295,
 14.684366,
 14.922256,
@@ -11081,8 +11078,8 @@
 14.334944)</f>
         <v>14.526697799999999</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
         <f t="shared" ref="E90" si="24">AVERAGE(0.449514,
 0.447493,
 0.449762,
@@ -11105,8 +11102,8 @@
 0.447367)</f>
         <v>0.44735335000000004</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
         <f t="shared" ref="G90" si="25">AVERAGE(0.377593,
 0.377269,
 0.37763,
@@ -11129,14 +11126,14 @@
 0.377726)</f>
         <v>0.37700790000000001</v>
       </c>
-      <c r="H90" s="6"/>
+      <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="3"/>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <f t="shared" ref="C91" si="26">AVERAGE(21.713503,
 21.17125,
 21.670472,
@@ -11159,8 +11156,8 @@
 21.757099)</f>
         <v>21.528331999999999</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
         <f t="shared" ref="E91" si="27">AVERAGE(0.677048,
 0.677972,
 0.674243,
@@ -11183,8 +11180,8 @@
 0.6727)</f>
         <v>0.67437875000000003</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
         <f t="shared" ref="G91" si="28">AVERAGE(0.566312,
 0.565698,
 0.569108,
@@ -11207,14 +11204,14 @@
 0.569113)</f>
         <v>0.56628044999999994</v>
       </c>
-      <c r="H91" s="6"/>
+      <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B92" s="3"/>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <f t="shared" ref="C92" si="29">AVERAGE(33.567137,
 33.621112,
 33.614074,
@@ -11237,8 +11234,8 @@
 33.274311)</f>
         <v>33.508864149999994</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5">
         <f t="shared" ref="E92" si="30">AVERAGE(1.066513,
 1.072779,
 1.055755,
@@ -11261,8 +11258,8 @@
 1.047965)</f>
         <v>1.052265</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
         <f t="shared" ref="G92" si="31">AVERAGE(0.886522,
 0.881791,
 0.886,
@@ -11285,25 +11282,25 @@
 0.882942)</f>
         <v>0.88409470000000012</v>
       </c>
-      <c r="H92" s="6"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="5"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -11468,27 +11465,67 @@
       </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="A2:M10">
     <sortCondition ref="C2:C10"/>
   </sortState>
   <mergeCells count="83">
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A12:N13"/>
+    <mergeCell ref="A46:M47"/>
+    <mergeCell ref="A80:M81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A92:B92"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="E94:F94"/>
     <mergeCell ref="E95:F95"/>
@@ -11505,62 +11542,17 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A12:N13"/>
-    <mergeCell ref="A46:M47"/>
-    <mergeCell ref="A80:M81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E103:F103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
